--- a/明细表.xlsx
+++ b/明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="18600" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,51 +14,58 @@
     <sheet name="失业" sheetId="6" r:id="rId5"/>
     <sheet name="生育" sheetId="7" r:id="rId6"/>
     <sheet name="工伤" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
-  <si>
-    <t>当前月份</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="87">
+  <si>
+    <t>发工资日</t>
+  </si>
+  <si>
+    <t>所发月份</t>
   </si>
   <si>
     <t>工作时间</t>
   </si>
   <si>
-    <t>发工资日</t>
-  </si>
-  <si>
     <t>基本工资</t>
   </si>
   <si>
     <t>其他补贴</t>
   </si>
   <si>
+    <t>绩效福利</t>
+  </si>
+  <si>
     <t>补发</t>
   </si>
   <si>
-    <t>绩效福利</t>
+    <t>补扣</t>
+  </si>
+  <si>
+    <t>正常工资</t>
+  </si>
+  <si>
+    <t>正常出勤（日）</t>
   </si>
   <si>
     <t>实际出勤日</t>
   </si>
   <si>
-    <t>正常出勤（日）</t>
-  </si>
-  <si>
     <t>缺勤（天）</t>
   </si>
   <si>
     <t>缺勤扣款</t>
   </si>
   <si>
-    <t>迟到/早退扣款（1次50元）</t>
-  </si>
-  <si>
-    <t>应发(报销部分分开)</t>
+    <t>迟到/早退扣款</t>
+  </si>
+  <si>
+    <t>应发合计</t>
   </si>
   <si>
     <t>社保</t>
@@ -148,7 +155,7 @@
     <t>11-26至12-25</t>
   </si>
   <si>
-    <t>迟到10分钟以内扣50元*10，迟到10分钟以上扣半天工资*5</t>
+    <t>迟到10分钟以内扣50元*10，迟到10分钟以上扣半天工资*6</t>
   </si>
   <si>
     <t>1月</t>
@@ -157,6 +164,30 @@
     <t>12-26至1-25</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>买3000元发票60元。按个人记录：未迟到/早退</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>1-26至2-25</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>补扣原因：1月份未做薪资调整</t>
+  </si>
+  <si>
+    <t>2-26至3-25</t>
+  </si>
+  <si>
+    <t>预测2月份工资</t>
+  </si>
+  <si>
     <t>适用于2018-10-01前</t>
   </si>
   <si>
@@ -184,7 +215,22 @@
     <t>合计：812.18元（试用期固定）</t>
   </si>
   <si>
-    <t>转正后：基本工资10500+绩效福利2187.5</t>
+    <t>转正后：基本工资10500+每月绩效福利2187.5</t>
+  </si>
+  <si>
+    <t>改为：</t>
+  </si>
+  <si>
+    <t>10150+季度绩效7613</t>
+  </si>
+  <si>
+    <t>少3000元</t>
+  </si>
+  <si>
+    <t>个税调整后：</t>
+  </si>
+  <si>
+    <t>正常工作时间工资2600+保密费3000+住房补贴4550=10150元</t>
   </si>
   <si>
     <t>缴费年月</t>
@@ -227,6 +273,15 @@
   </si>
   <si>
     <t>结算日期</t>
+  </si>
+  <si>
+    <t>0-10分钟</t>
+  </si>
+  <si>
+    <t>10-半小时</t>
+  </si>
+  <si>
+    <t>半小时-3小时</t>
   </si>
 </sst>
 </file>
@@ -234,12 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="26">
@@ -299,25 +354,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,6 +378,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -345,22 +421,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -383,6 +443,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -399,15 +467,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,22 +483,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,7 +518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +560,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,61 +650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,31 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,31 +704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,32 +720,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -691,19 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -713,15 +767,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,11 +786,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,17 +816,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,27 +868,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,137 +886,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,10 +1060,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1021,114 +1075,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,18 +1194,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1287,6 +1326,48 @@
         <a:xfrm>
           <a:off x="6426200" y="31750"/>
           <a:ext cx="4826000" cy="5467350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="5276850"/>
+          <a:ext cx="9569450" cy="2387600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,37 +1641,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="13.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.08333333333333" style="16"/>
+    <col min="1" max="1" width="9.08333333333333" style="16"/>
+    <col min="2" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="13.25" style="16" customWidth="1"/>
     <col min="4" max="4" width="7.58333333333333" style="16" customWidth="1"/>
     <col min="5" max="5" width="5.58333333333333" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.91666666666667" style="16" customWidth="1"/>
-    <col min="7" max="7" width="7.58333333333333" style="16" customWidth="1"/>
-    <col min="8" max="8" width="6.66666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="7.16666666666667" style="18" customWidth="1"/>
-    <col min="10" max="10" width="13.525" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9" style="16"/>
-    <col min="12" max="12" width="10.6833333333333" style="16" customWidth="1"/>
-    <col min="13" max="13" width="6.66666666666667" style="16" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="16" customWidth="1"/>
-    <col min="16" max="16" width="7.41666666666667" style="16" customWidth="1"/>
-    <col min="17" max="17" width="8.13333333333333" style="16" customWidth="1"/>
-    <col min="18" max="18" width="9.10833333333333" style="19" customWidth="1"/>
-    <col min="19" max="19" width="9.10833333333333" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.41666666666667" style="17"/>
-    <col min="21" max="21" width="9.41666666666667" style="20"/>
-    <col min="22" max="22" width="30.3916666666667" style="16" customWidth="1"/>
-    <col min="23" max="23" width="11.5833333333333" style="16"/>
+    <col min="6" max="6" width="7.58333333333333" style="16" customWidth="1"/>
+    <col min="7" max="8" width="8.91666666666667" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="7.16666666666667" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.66666666666667" style="18" customWidth="1"/>
+    <col min="12" max="12" width="13.525" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9" style="16"/>
+    <col min="14" max="14" width="10.6833333333333" style="16" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="10.25" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.41666666666667" style="16" customWidth="1"/>
+    <col min="18" max="18" width="8.13333333333333" style="16" customWidth="1"/>
+    <col min="19" max="19" width="9.10833333333333" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.10833333333333" style="20" customWidth="1"/>
+    <col min="21" max="21" width="9.41666666666667" style="18"/>
+    <col min="22" max="22" width="9.41666666666667" style="20"/>
+    <col min="23" max="23" width="30.3916666666667" style="16" customWidth="1"/>
     <col min="24" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
@@ -1616,103 +1696,102 @@
       <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="35" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="36" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="S1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="T1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="U1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="50" t="s">
-        <v>19</v>
+      <c r="V1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="24" customHeight="1" spans="1:23">
-      <c r="A2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" s="22">
         <v>43321</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="24">
+      <c r="R2" s="23"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="24">
         <v>1365.59</v>
       </c>
-      <c r="T2" s="52">
-        <v>0</v>
-      </c>
       <c r="U2" s="53">
-        <f t="shared" ref="U2:U7" si="0">S2+T2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="54">
+        <f t="shared" ref="V2:V10" si="0">T2+U2</f>
         <v>1365.59</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="54">
-        <f>SUM(U2:U8)</f>
-        <v>50933.8744</v>
-      </c>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" s="15" customFormat="1" ht="42" spans="1:23">
-      <c r="A3" s="23" t="s">
-        <v>23</v>
+      <c r="A3" s="22">
+        <v>43354</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="25">
-        <v>43354</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="23">
         <v>7500</v>
@@ -1721,70 +1800,69 @@
         <v>38</v>
       </c>
       <c r="F3" s="23"/>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23">
+        <f>SUM(D3:H3)</f>
+        <v>7538</v>
+      </c>
+      <c r="J3" s="39">
+        <v>22</v>
+      </c>
+      <c r="K3" s="40">
         <v>20.5</v>
       </c>
-      <c r="I3" s="39">
-        <v>22</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="41">
+      <c r="L3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="42">
         <v>517.24</v>
       </c>
-      <c r="L3" s="41">
-        <v>0</v>
-      </c>
-      <c r="M3" s="24">
-        <v>3000</v>
-      </c>
-      <c r="N3" s="24">
-        <f>SUM(D3:G3)-L3-K3</f>
+      <c r="N3" s="42">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <f t="shared" ref="O3:O10" si="1">I3-N3-M3</f>
         <v>7020.76</v>
       </c>
-      <c r="O3" s="23">
+      <c r="P3" s="23">
         <v>287.18</v>
       </c>
-      <c r="P3" s="23">
+      <c r="Q3" s="23">
         <v>525</v>
       </c>
-      <c r="Q3" s="24">
-        <f>N3-O3-P3</f>
+      <c r="R3" s="24">
+        <f t="shared" ref="R3:R10" si="2">O3-P3-Q3</f>
         <v>6208.58</v>
       </c>
-      <c r="R3" s="51">
-        <f>(Q3-3500)*0.1-105</f>
+      <c r="S3" s="52">
+        <f>(R3-3500)*0.1-105</f>
         <v>165.858</v>
       </c>
-      <c r="S3" s="55">
-        <f>Q3-R3</f>
+      <c r="T3" s="55">
+        <f t="shared" ref="T3:T10" si="3">R3-S3</f>
         <v>6042.722</v>
       </c>
-      <c r="T3" s="52">
-        <v>0</v>
-      </c>
       <c r="U3" s="53">
+        <v>0</v>
+      </c>
+      <c r="V3" s="54">
         <f t="shared" si="0"/>
         <v>6042.722</v>
       </c>
-      <c r="V3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="56"/>
+      <c r="W3" s="23" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" ht="34" customHeight="1" spans="1:23">
-      <c r="A4" s="23" t="s">
-        <v>27</v>
+      <c r="A4" s="22">
+        <v>43385</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="25">
-        <v>43385</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="23">
         <v>7500</v>
@@ -1793,318 +1871,511 @@
         <v>38</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
+        <f t="shared" ref="I4:I10" si="4">SUM(D4:H4)</f>
+        <v>7538</v>
+      </c>
+      <c r="J4" s="39">
+        <v>21</v>
+      </c>
+      <c r="K4" s="40">
         <v>19.5</v>
       </c>
-      <c r="I4" s="39">
-        <v>21</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="41">
+      <c r="L4" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="42">
         <v>344.83</v>
       </c>
-      <c r="L4" s="41">
+      <c r="N4" s="42">
         <v>200</v>
       </c>
-      <c r="M4" s="24">
-        <v>3000</v>
-      </c>
-      <c r="N4" s="24">
-        <f>SUM(D4:G4)-L4-K4</f>
+      <c r="O4" s="24">
+        <f t="shared" si="1"/>
         <v>6993.17</v>
       </c>
-      <c r="O4" s="23">
+      <c r="P4" s="23">
         <v>287.18</v>
       </c>
-      <c r="P4" s="23">
+      <c r="Q4" s="23">
         <v>525</v>
       </c>
-      <c r="Q4" s="24">
-        <f>N4-O4-P4</f>
+      <c r="R4" s="24">
+        <f t="shared" si="2"/>
         <v>6180.99</v>
       </c>
-      <c r="R4" s="51">
-        <f t="shared" ref="R4:R7" si="1">(Q4-5000)*0.03</f>
+      <c r="S4" s="52">
+        <f t="shared" ref="S4:S10" si="5">(R4-5000)*0.03</f>
         <v>35.4297</v>
       </c>
-      <c r="S4" s="55">
-        <f>Q4-R4</f>
+      <c r="T4" s="55">
+        <f t="shared" si="3"/>
         <v>6145.5603</v>
       </c>
-      <c r="T4" s="52">
+      <c r="U4" s="53">
         <v>6000</v>
       </c>
-      <c r="U4" s="53">
+      <c r="V4" s="54">
         <f t="shared" si="0"/>
         <v>12145.5603</v>
       </c>
-      <c r="V4" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="41">
-        <v>344.83</v>
+      <c r="W4" s="23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="28" spans="1:23">
-      <c r="A5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="A5" s="25">
         <v>43417</v>
       </c>
-      <c r="D5" s="28">
+      <c r="B5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="26">
         <v>7500</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>38</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28">
+      <c r="F5" s="26">
         <v>510.42</v>
       </c>
-      <c r="H5" s="30">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="23">
+        <f t="shared" si="4"/>
+        <v>8048.42</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="45">
         <v>17.5</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="44">
-        <v>0</v>
-      </c>
-      <c r="K5" s="45">
-        <v>0</v>
-      </c>
-      <c r="L5" s="45">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
+      <c r="L5" s="46">
+        <v>0</v>
+      </c>
+      <c r="M5" s="47">
+        <v>0</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <f t="shared" si="1"/>
+        <v>8048.42</v>
+      </c>
+      <c r="P5" s="26">
+        <v>287.18</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>525</v>
+      </c>
+      <c r="R5" s="56">
+        <f t="shared" si="2"/>
+        <v>7236.24</v>
+      </c>
+      <c r="S5" s="57">
+        <f t="shared" si="5"/>
+        <v>67.0872</v>
+      </c>
+      <c r="T5" s="58">
+        <f t="shared" si="3"/>
+        <v>7169.1528</v>
+      </c>
+      <c r="U5" s="59">
         <v>3000</v>
       </c>
-      <c r="N5" s="46">
-        <f>SUM(D5:G5)-L5-K5</f>
-        <v>8048.42</v>
-      </c>
-      <c r="O5" s="28">
-        <v>287.18</v>
-      </c>
-      <c r="P5" s="28">
-        <v>525</v>
-      </c>
-      <c r="Q5" s="46">
-        <f>N5-O5-P5</f>
-        <v>7236.24</v>
-      </c>
-      <c r="R5" s="58">
-        <f t="shared" si="1"/>
-        <v>67.0872</v>
-      </c>
-      <c r="S5" s="59">
-        <f>Q5-R5</f>
-        <v>7169.1528</v>
-      </c>
-      <c r="T5" s="60">
-        <v>3000</v>
-      </c>
-      <c r="U5" s="61">
+      <c r="V5" s="60">
         <f t="shared" si="0"/>
         <v>10169.1528</v>
       </c>
-      <c r="V5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="41">
-        <v>444.83</v>
+      <c r="W5" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="42" spans="1:23">
-      <c r="A6" s="23" t="s">
-        <v>35</v>
+      <c r="A6" s="27">
+        <v>43445</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="31">
-        <v>43445</v>
-      </c>
-      <c r="D6" s="28">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="26">
         <v>7500</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="28">
         <v>38</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="28">
+        <v>635.08</v>
+      </c>
+      <c r="G6" s="28">
         <v>1552.42</v>
       </c>
-      <c r="G6" s="32">
-        <v>635.08</v>
-      </c>
-      <c r="H6" s="33">
+      <c r="H6" s="28"/>
+      <c r="I6" s="23">
+        <f t="shared" si="4"/>
+        <v>9725.5</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="49">
         <v>20</v>
       </c>
-      <c r="I6" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="32">
+      <c r="L6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="28">
         <v>689.66</v>
       </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="46">
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" si="1"/>
+        <v>9035.84</v>
+      </c>
+      <c r="P6" s="26">
+        <v>287.18</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>525</v>
+      </c>
+      <c r="R6" s="56">
+        <f t="shared" si="2"/>
+        <v>8223.66</v>
+      </c>
+      <c r="S6" s="57">
+        <f>(R6-5000)*0.1-210</f>
+        <v>112.366</v>
+      </c>
+      <c r="T6" s="58">
+        <f t="shared" si="3"/>
+        <v>8111.294</v>
+      </c>
+      <c r="U6" s="61">
         <v>3000</v>
       </c>
-      <c r="N6" s="46">
-        <f>SUM(D6:G6)-L6-K6</f>
-        <v>9035.84</v>
-      </c>
-      <c r="O6" s="28">
-        <v>287.18</v>
-      </c>
-      <c r="P6" s="28">
-        <v>525</v>
-      </c>
-      <c r="Q6" s="46">
-        <f>N6-O6-P6</f>
-        <v>8223.66</v>
-      </c>
-      <c r="R6" s="58">
-        <f>(Q6-5000)*0.1-210</f>
-        <v>112.366</v>
-      </c>
-      <c r="S6" s="59">
-        <f>Q6-R6</f>
-        <v>8111.294</v>
-      </c>
-      <c r="T6" s="62">
-        <v>3000</v>
-      </c>
-      <c r="U6" s="61">
+      <c r="V6" s="60">
         <f t="shared" si="0"/>
         <v>11111.294</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="W6" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:23">
+      <c r="A7" s="27">
+        <v>43476</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="28">
+        <v>7500</v>
+      </c>
+      <c r="E7" s="28">
+        <v>38</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1968.75</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="23">
+        <f t="shared" si="4"/>
+        <v>9506.75</v>
+      </c>
+      <c r="J7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="32">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:23">
-      <c r="A7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32">
-        <v>7500</v>
-      </c>
-      <c r="E7" s="32">
-        <v>38</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1968.75</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="K7" s="49">
         <v>22</v>
       </c>
-      <c r="I7" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32">
-        <v>0</v>
-      </c>
-      <c r="L7" s="32">
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
         <v>1534.48</v>
       </c>
-      <c r="M7" s="46">
+      <c r="O7" s="24">
+        <f t="shared" si="1"/>
+        <v>7972.27</v>
+      </c>
+      <c r="P7" s="26">
+        <v>282.78</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>525</v>
+      </c>
+      <c r="R7" s="56">
+        <f t="shared" si="2"/>
+        <v>7164.49</v>
+      </c>
+      <c r="S7" s="57">
+        <f t="shared" si="5"/>
+        <v>64.9347</v>
+      </c>
+      <c r="T7" s="58">
+        <f t="shared" si="3"/>
+        <v>7099.5553</v>
+      </c>
+      <c r="U7" s="61">
         <v>3000</v>
       </c>
-      <c r="N7" s="46">
-        <f>SUM(D7:G7)-L7-K7</f>
-        <v>7972.27</v>
-      </c>
-      <c r="O7" s="28">
-        <v>282.78</v>
-      </c>
-      <c r="P7" s="28">
-        <v>525</v>
-      </c>
-      <c r="Q7" s="46">
-        <f>N7-O7-P7</f>
-        <v>7164.49</v>
-      </c>
-      <c r="R7" s="58">
-        <f t="shared" si="1"/>
-        <v>64.9347</v>
-      </c>
-      <c r="S7" s="59">
-        <f>Q7-R7</f>
-        <v>7099.5553</v>
-      </c>
-      <c r="T7" s="62">
-        <v>3000</v>
-      </c>
-      <c r="U7" s="61">
+      <c r="V7" s="60">
         <f t="shared" si="0"/>
         <v>10099.5553</v>
       </c>
-      <c r="V7" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="63"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="34" t="s">
+      <c r="W7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="63"/>
+    </row>
+    <row r="8" ht="28" spans="1:23">
+      <c r="A8" s="27">
+        <v>43516</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="28">
+        <v>7500</v>
+      </c>
+      <c r="E8" s="28">
+        <v>38</v>
+      </c>
+      <c r="F8" s="28">
+        <v>2188</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="23">
+        <f t="shared" si="4"/>
+        <v>9726</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="49">
+        <v>21</v>
+      </c>
+      <c r="L8" s="49">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>1636.28</v>
+      </c>
+      <c r="O8" s="24">
+        <f t="shared" si="1"/>
+        <v>8089.72</v>
+      </c>
+      <c r="P8" s="23">
+        <v>282.78</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>525</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" si="2"/>
+        <v>7281.94</v>
+      </c>
+      <c r="S8" s="52">
+        <f t="shared" si="5"/>
+        <v>68.4582</v>
+      </c>
+      <c r="T8" s="55">
+        <f t="shared" si="3"/>
+        <v>7213.4818</v>
+      </c>
+      <c r="U8" s="61">
+        <v>3000</v>
+      </c>
+      <c r="V8" s="54">
+        <f t="shared" si="0"/>
+        <v>10213.4818</v>
+      </c>
+      <c r="W8" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:23">
+      <c r="A9" s="27">
+        <v>43536</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="28">
+        <v>10150</v>
+      </c>
+      <c r="E9" s="28">
+        <v>38</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1636.28</v>
+      </c>
+      <c r="H9" s="30">
+        <v>-2217.1</v>
+      </c>
+      <c r="I9" s="23">
+        <f>SUM(D9:H9)</f>
+        <v>9607.18</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="49">
+        <v>17</v>
+      </c>
+      <c r="L9" s="28">
+        <v>2</v>
+      </c>
+      <c r="M9" s="28">
+        <v>933.33</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <f>I9-N9-M9</f>
+        <v>8673.85</v>
+      </c>
+      <c r="P9" s="23">
+        <v>282.78</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>525</v>
+      </c>
+      <c r="R9" s="24">
+        <f t="shared" si="2"/>
+        <v>7866.07</v>
+      </c>
+      <c r="S9" s="52">
+        <f t="shared" si="5"/>
+        <v>85.9821</v>
+      </c>
+      <c r="T9" s="55">
+        <f t="shared" si="3"/>
+        <v>7780.0879</v>
+      </c>
+      <c r="U9" s="49">
+        <v>0</v>
+      </c>
+      <c r="V9" s="54">
+        <f t="shared" si="0"/>
+        <v>7780.0879</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:23">
+      <c r="A10" s="15"/>
+      <c r="C10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="28">
+        <v>10150</v>
+      </c>
+      <c r="E10" s="28">
+        <v>38</v>
+      </c>
+      <c r="F10" s="28">
+        <v>7613</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <f>SUM(D10:H10)</f>
+        <v>17801</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="49">
+        <v>17</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <f>I10-N10-M10</f>
+        <v>17801</v>
+      </c>
+      <c r="P10" s="23">
+        <v>282.78</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>525</v>
+      </c>
+      <c r="R10" s="24">
+        <f t="shared" si="2"/>
+        <v>16993.22</v>
+      </c>
+      <c r="S10" s="52">
+        <f>(R10-5000)*0.2-1410</f>
+        <v>988.644</v>
+      </c>
+      <c r="T10" s="55">
+        <f t="shared" si="3"/>
+        <v>16004.576</v>
+      </c>
+      <c r="U10" s="49">
+        <v>0</v>
+      </c>
+      <c r="V10" s="54">
+        <f t="shared" si="0"/>
+        <v>16004.576</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M1:N1"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2113,39 +2384,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="11" max="11" width="19.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" s="13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2164,27 +2435,54 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>64</v>
+      </c>
+      <c r="F25">
+        <v>41062.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>38063</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2199,8 +2497,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2210,22 +2508,22 @@
   <sheetData>
     <row r="1" ht="27" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2233,19 +2531,19 @@
         <v>42370</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="39" spans="1:6">
@@ -2253,7 +2551,7 @@
         <v>42401</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C3" s="12">
         <v>2585</v>
@@ -2265,7 +2563,7 @@
         <v>206.8</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="39" spans="1:6">
@@ -2273,7 +2571,7 @@
         <v>42430</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C4" s="12">
         <v>2585</v>
@@ -2285,7 +2583,7 @@
         <v>206.8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="39" spans="1:6">
@@ -2293,7 +2591,7 @@
         <v>42461</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C5" s="12">
         <v>2585</v>
@@ -2305,7 +2603,7 @@
         <v>206.8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="39" spans="1:6">
@@ -2313,7 +2611,7 @@
         <v>42491</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12">
         <v>2585</v>
@@ -2325,7 +2623,7 @@
         <v>206.8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:6">
@@ -2333,7 +2631,7 @@
         <v>42522</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C7" s="12">
         <v>2585</v>
@@ -2345,7 +2643,7 @@
         <v>206.8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="39" spans="1:6">
@@ -2353,7 +2651,7 @@
         <v>42552</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C8" s="12">
         <v>2844</v>
@@ -2365,7 +2663,7 @@
         <v>227.52</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="39" spans="1:6">
@@ -2373,7 +2671,7 @@
         <v>42583</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C9" s="12">
         <v>2844</v>
@@ -2385,7 +2683,7 @@
         <v>227.52</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="39" spans="1:6">
@@ -2393,7 +2691,7 @@
         <v>42614</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C10" s="12">
         <v>2834</v>
@@ -2405,7 +2703,7 @@
         <v>226.72</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2413,19 +2711,19 @@
         <v>42644</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2433,19 +2731,19 @@
         <v>42675</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="26" spans="1:6">
@@ -2453,7 +2751,7 @@
         <v>42705</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C13" s="12">
         <v>2834</v>
@@ -2465,7 +2763,7 @@
         <v>226.72</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:6">
@@ -2473,7 +2771,7 @@
         <v>42736</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C14" s="12">
         <v>2834</v>
@@ -2485,7 +2783,7 @@
         <v>226.72</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:6">
@@ -2493,7 +2791,7 @@
         <v>42767</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C15" s="12">
         <v>2834</v>
@@ -2505,7 +2803,7 @@
         <v>226.72</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:6">
@@ -2513,7 +2811,7 @@
         <v>42795</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C16" s="12">
         <v>2834</v>
@@ -2525,7 +2823,7 @@
         <v>226.72</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:6">
@@ -2533,7 +2831,7 @@
         <v>42826</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C17" s="12">
         <v>2834</v>
@@ -2545,7 +2843,7 @@
         <v>226.72</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:6">
@@ -2553,7 +2851,7 @@
         <v>42856</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C18" s="12">
         <v>2834</v>
@@ -2565,7 +2863,7 @@
         <v>226.72</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:6">
@@ -2573,7 +2871,7 @@
         <v>42887</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C19" s="12">
         <v>2834</v>
@@ -2585,7 +2883,7 @@
         <v>226.72</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:6">
@@ -2593,7 +2891,7 @@
         <v>42917</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C20" s="12">
         <v>3082</v>
@@ -2605,7 +2903,7 @@
         <v>246.56</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2613,19 +2911,19 @@
         <v>42948</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2633,19 +2931,19 @@
         <v>42979</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="39" spans="1:6">
@@ -2653,7 +2951,7 @@
         <v>43009</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C23" s="12">
         <v>3082</v>
@@ -2665,7 +2963,7 @@
         <v>246.56</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" ht="39" spans="1:6">
@@ -2673,7 +2971,7 @@
         <v>43040</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C24" s="12">
         <v>3082</v>
@@ -2685,7 +2983,7 @@
         <v>246.56</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="39" spans="1:6">
@@ -2693,7 +2991,7 @@
         <v>43070</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C25" s="12">
         <v>3082</v>
@@ -2705,7 +3003,7 @@
         <v>246.56</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="39" spans="1:6">
@@ -2713,7 +3011,7 @@
         <v>43101</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C26" s="12">
         <v>3082</v>
@@ -2725,7 +3023,7 @@
         <v>246.56</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="39" spans="1:6">
@@ -2733,7 +3031,7 @@
         <v>43132</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C27" s="12">
         <v>3082</v>
@@ -2745,7 +3043,7 @@
         <v>246.56</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="39" spans="1:6">
@@ -2753,7 +3051,7 @@
         <v>43160</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C28" s="12">
         <v>3082</v>
@@ -2765,7 +3063,7 @@
         <v>246.56</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -2785,8 +3083,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -2797,22 +3095,22 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:10">
       <c r="A1" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -2821,19 +3119,19 @@
         <v>42370</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -2842,7 +3140,7 @@
         <v>42401</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C3" s="12">
         <v>3878</v>
@@ -2854,7 +3152,7 @@
         <v>80.56</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="26" spans="1:6">
@@ -2862,7 +3160,7 @@
         <v>42430</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12">
         <v>3878</v>
@@ -2874,7 +3172,7 @@
         <v>80.56</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="26" spans="1:6">
@@ -2882,7 +3180,7 @@
         <v>42461</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C5" s="12">
         <v>3878</v>
@@ -2894,7 +3192,7 @@
         <v>80.56</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="26" spans="1:6">
@@ -2902,7 +3200,7 @@
         <v>42491</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C6" s="12">
         <v>3878</v>
@@ -2914,7 +3212,7 @@
         <v>80.56</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:6">
@@ -2922,7 +3220,7 @@
         <v>42522</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C7" s="12">
         <v>3878</v>
@@ -2934,7 +3232,7 @@
         <v>80.56</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="26" spans="1:6">
@@ -2942,7 +3240,7 @@
         <v>42552</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C8" s="12">
         <v>4266</v>
@@ -2954,7 +3252,7 @@
         <v>88.32</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="26" spans="1:6">
@@ -2962,7 +3260,7 @@
         <v>42583</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C9" s="12">
         <v>4266</v>
@@ -2974,7 +3272,7 @@
         <v>88.32</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="26" spans="1:6">
@@ -2982,7 +3280,7 @@
         <v>42614</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
         <v>4252</v>
@@ -2994,7 +3292,7 @@
         <v>88.04</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3002,19 +3300,19 @@
         <v>42644</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3022,19 +3320,19 @@
         <v>42675</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="26" spans="1:6">
@@ -3042,7 +3340,7 @@
         <v>42705</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C13" s="12">
         <v>4252</v>
@@ -3054,7 +3352,7 @@
         <v>88.04</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:6">
@@ -3062,7 +3360,7 @@
         <v>42736</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C14" s="12">
         <v>4252</v>
@@ -3074,7 +3372,7 @@
         <v>88.04</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:6">
@@ -3082,7 +3380,7 @@
         <v>42767</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C15" s="12">
         <v>4252</v>
@@ -3094,7 +3392,7 @@
         <v>88.04</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:6">
@@ -3102,7 +3400,7 @@
         <v>42795</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12">
         <v>4252</v>
@@ -3114,7 +3412,7 @@
         <v>88.04</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:6">
@@ -3122,7 +3420,7 @@
         <v>42826</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12">
         <v>4252</v>
@@ -3134,7 +3432,7 @@
         <v>88.04</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:6">
@@ -3142,7 +3440,7 @@
         <v>42856</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12">
         <v>4252</v>
@@ -3154,7 +3452,7 @@
         <v>88.04</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:6">
@@ -3162,7 +3460,7 @@
         <v>42887</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12">
         <v>4252</v>
@@ -3174,7 +3472,7 @@
         <v>88.04</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:6">
@@ -3182,7 +3480,7 @@
         <v>42917</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12">
         <v>4624</v>
@@ -3194,7 +3492,7 @@
         <v>95.48</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3202,19 +3500,19 @@
         <v>42948</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3222,19 +3520,19 @@
         <v>42979</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:6">
@@ -3242,7 +3540,7 @@
         <v>43009</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C23" s="12">
         <v>4624</v>
@@ -3254,7 +3552,7 @@
         <v>95.48</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" ht="26" spans="1:6">
@@ -3262,7 +3560,7 @@
         <v>43040</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C24" s="12">
         <v>4624</v>
@@ -3274,7 +3572,7 @@
         <v>95.48</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="26" spans="1:6">
@@ -3282,7 +3580,7 @@
         <v>43070</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C25" s="12">
         <v>4624</v>
@@ -3294,7 +3592,7 @@
         <v>95.48</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="26" spans="1:6">
@@ -3302,7 +3600,7 @@
         <v>43101</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C26" s="12">
         <v>4624</v>
@@ -3314,7 +3612,7 @@
         <v>95.48</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="26" spans="1:6">
@@ -3322,7 +3620,7 @@
         <v>43132</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C27" s="12">
         <v>4624</v>
@@ -3334,7 +3632,7 @@
         <v>95.48</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="26" spans="1:6">
@@ -3342,7 +3640,7 @@
         <v>43160</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C28" s="12">
         <v>4624</v>
@@ -3354,7 +3652,7 @@
         <v>95.48</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="5:5">
@@ -3385,16 +3683,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3402,13 +3700,13 @@
         <v>42370</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3528,13 +3826,13 @@
         <v>42644</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3542,13 +3840,13 @@
         <v>42675</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3668,13 +3966,13 @@
         <v>42948</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3682,13 +3980,13 @@
         <v>42979</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3803,13 +4101,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3817,10 +4115,10 @@
         <v>42370</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3916,10 +4214,10 @@
         <v>42644</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3927,10 +4225,10 @@
         <v>42675</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4026,10 +4324,10 @@
         <v>42948</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4037,10 +4335,10 @@
         <v>42979</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4137,13 +4435,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4151,10 +4449,10 @@
         <v>42370</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4250,10 +4548,10 @@
         <v>42644</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4261,10 +4559,10 @@
         <v>42675</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4360,10 +4658,10 @@
         <v>42948</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4371,10 +4669,10 @@
         <v>42979</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4447,6 +4745,53 @@
       <c r="C29">
         <f>SUM(C2:C28)</f>
         <v>377.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/明细表.xlsx
+++ b/明细表.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="18650" windowHeight="7070" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="总结" sheetId="2" r:id="rId2"/>
     <sheet name="养老" sheetId="3" r:id="rId3"/>
     <sheet name="医疗" sheetId="4" r:id="rId4"/>
-    <sheet name="失业" sheetId="6" r:id="rId5"/>
+    <sheet name="失业" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="生育" sheetId="7" r:id="rId6"/>
-    <sheet name="工伤" sheetId="8" r:id="rId7"/>
+    <sheet name="工伤" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="103">
   <si>
     <t>发工资日</t>
   </si>
@@ -266,13 +266,61 @@
     <t>北京律和同盟科技有限公司</t>
   </si>
   <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>险种标志</t>
+  </si>
+  <si>
+    <t>申报类别</t>
+  </si>
+  <si>
+    <t>个人缴费金额</t>
+  </si>
+  <si>
+    <t>单位缴费金额</t>
+  </si>
+  <si>
+    <t>缴费合计</t>
+  </si>
+  <si>
+    <t>深圳炫彩生活网络科技有限公司</t>
+  </si>
+  <si>
+    <t>企业养老</t>
+  </si>
+  <si>
+    <t>单位正常缴费</t>
+  </si>
+  <si>
+    <t>深圳市彩生活物业管理有限公司</t>
+  </si>
+  <si>
+    <t>跨越速运集团有限公司</t>
+  </si>
+  <si>
     <t>缴费类别</t>
   </si>
   <si>
     <t>正常缴纳</t>
   </si>
   <si>
+    <t>申报发生原因</t>
+  </si>
+  <si>
+    <t>划入个账金额</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>结算日期</t>
+  </si>
+  <si>
+    <t>生育</t>
   </si>
   <si>
     <t>0-10分钟</t>
@@ -288,16 +336,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="##,###,###,###,##0.00"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +360,11 @@
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -348,22 +403,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,10 +424,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,35 +463,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -443,9 +493,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +524,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,17 +540,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -536,7 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,25 +615,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +651,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +693,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,37 +747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,67 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,17 +841,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,11 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,7 +899,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,23 +918,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,16 +941,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,154 +959,157 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1066,24 +1124,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,100 +1157,100 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1643,737 +1701,737 @@
   <sheetPr/>
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.08333333333333" style="16"/>
-    <col min="2" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="13.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.58333333333333" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5.58333333333333" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.58333333333333" style="16" customWidth="1"/>
-    <col min="7" max="8" width="8.91666666666667" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="7.16666666666667" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.66666666666667" style="18" customWidth="1"/>
-    <col min="12" max="12" width="13.525" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="10.6833333333333" style="16" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="10.25" style="16" customWidth="1"/>
-    <col min="17" max="17" width="7.41666666666667" style="16" customWidth="1"/>
-    <col min="18" max="18" width="8.13333333333333" style="16" customWidth="1"/>
-    <col min="19" max="19" width="9.10833333333333" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.10833333333333" style="20" customWidth="1"/>
-    <col min="21" max="21" width="9.41666666666667" style="18"/>
-    <col min="22" max="22" width="9.41666666666667" style="20"/>
-    <col min="23" max="23" width="30.3916666666667" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9.08333333333333" style="19"/>
+    <col min="2" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="13.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.58333333333333" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.58333333333333" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7.58333333333333" style="19" customWidth="1"/>
+    <col min="7" max="8" width="8.91666666666667" style="19" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.16666666666667" style="20" customWidth="1"/>
+    <col min="11" max="11" width="6.66666666666667" style="21" customWidth="1"/>
+    <col min="12" max="12" width="13.525" style="18" customWidth="1"/>
+    <col min="13" max="13" width="9" style="19"/>
+    <col min="14" max="14" width="10.6833333333333" style="19" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.25" style="19" customWidth="1"/>
+    <col min="17" max="17" width="7.41666666666667" style="19" customWidth="1"/>
+    <col min="18" max="18" width="8.13333333333333" style="19" customWidth="1"/>
+    <col min="19" max="19" width="9.10833333333333" style="22" customWidth="1"/>
+    <col min="20" max="20" width="9.10833333333333" style="23" customWidth="1"/>
+    <col min="21" max="21" width="9.41666666666667" style="21"/>
+    <col min="22" max="22" width="9.41666666666667" style="23"/>
+    <col min="23" max="23" width="30.3916666666667" style="19" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="51" customHeight="1" spans="1:23">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" s="17" customFormat="1" ht="51" customHeight="1" spans="1:23">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" ht="24" customHeight="1" spans="1:23">
-      <c r="A2" s="22">
+    <row r="2" s="18" customFormat="1" ht="24" customHeight="1" spans="1:23">
+      <c r="A2" s="25">
         <v>43321</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="24">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="27">
         <v>1365.59</v>
       </c>
-      <c r="U2" s="53">
-        <v>0</v>
-      </c>
-      <c r="V2" s="54">
+      <c r="U2" s="56">
+        <v>0</v>
+      </c>
+      <c r="V2" s="57">
         <f t="shared" ref="V2:V10" si="0">T2+U2</f>
         <v>1365.59</v>
       </c>
-      <c r="W2" s="23"/>
-    </row>
-    <row r="3" s="15" customFormat="1" ht="42" spans="1:23">
-      <c r="A3" s="22">
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="42" spans="1:23">
+      <c r="A3" s="25">
         <v>43354</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="26">
         <v>7500</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="26">
         <v>38</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26">
         <f>SUM(D3:H3)</f>
         <v>7538</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="42">
         <v>22</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="43">
         <v>20.5</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="45">
         <v>517.24</v>
       </c>
-      <c r="N3" s="42">
-        <v>0</v>
-      </c>
-      <c r="O3" s="24">
+      <c r="N3" s="45">
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
         <f t="shared" ref="O3:O10" si="1">I3-N3-M3</f>
         <v>7020.76</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="26">
         <v>287.18</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="26">
         <v>525</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="27">
         <f t="shared" ref="R3:R10" si="2">O3-P3-Q3</f>
         <v>6208.58</v>
       </c>
-      <c r="S3" s="52">
+      <c r="S3" s="55">
         <f>(R3-3500)*0.1-105</f>
         <v>165.858</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="58">
         <f t="shared" ref="T3:T10" si="3">R3-S3</f>
         <v>6042.722</v>
       </c>
-      <c r="U3" s="53">
-        <v>0</v>
-      </c>
-      <c r="V3" s="54">
+      <c r="U3" s="56">
+        <v>0</v>
+      </c>
+      <c r="V3" s="57">
         <f t="shared" si="0"/>
         <v>6042.722</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" ht="34" customHeight="1" spans="1:23">
-      <c r="A4" s="22">
+      <c r="A4" s="25">
         <v>43385</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="26">
         <v>7500</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="26">
         <v>38</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26">
         <f t="shared" ref="I4:I10" si="4">SUM(D4:H4)</f>
         <v>7538</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="42">
         <v>21</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="43">
         <v>19.5</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="45">
         <v>344.83</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="45">
         <v>200</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="27">
         <f t="shared" si="1"/>
         <v>6993.17</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="26">
         <v>287.18</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="26">
         <v>525</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="27">
         <f t="shared" si="2"/>
         <v>6180.99</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="55">
         <f t="shared" ref="S4:S10" si="5">(R4-5000)*0.03</f>
         <v>35.4297</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="58">
         <f t="shared" si="3"/>
         <v>6145.5603</v>
       </c>
-      <c r="U4" s="53">
+      <c r="U4" s="56">
         <v>6000</v>
       </c>
-      <c r="V4" s="54">
+      <c r="V4" s="57">
         <f t="shared" si="0"/>
         <v>12145.5603</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="15" customFormat="1" ht="28" spans="1:23">
-      <c r="A5" s="25">
+    <row r="5" s="18" customFormat="1" ht="28" spans="1:23">
+      <c r="A5" s="28">
         <v>43417</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="29">
         <v>7500</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="29">
         <v>38</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="29">
         <v>510.42</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="23">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="26">
         <f t="shared" si="4"/>
         <v>8048.42</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="48">
         <v>17.5</v>
       </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="47">
-        <v>0</v>
-      </c>
-      <c r="N5" s="47">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
+      <c r="L5" s="49">
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0</v>
+      </c>
+      <c r="O5" s="27">
         <f t="shared" si="1"/>
         <v>8048.42</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="29">
         <v>287.18</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="29">
         <v>525</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="59">
         <f t="shared" si="2"/>
         <v>7236.24</v>
       </c>
-      <c r="S5" s="57">
+      <c r="S5" s="60">
         <f t="shared" si="5"/>
         <v>67.0872</v>
       </c>
-      <c r="T5" s="58">
+      <c r="T5" s="61">
         <f t="shared" si="3"/>
         <v>7169.1528</v>
       </c>
-      <c r="U5" s="59">
+      <c r="U5" s="62">
         <v>3000</v>
       </c>
-      <c r="V5" s="60">
+      <c r="V5" s="63">
         <f t="shared" si="0"/>
         <v>10169.1528</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="1" ht="42" spans="1:23">
-      <c r="A6" s="27">
+    <row r="6" s="18" customFormat="1" ht="42" spans="1:23">
+      <c r="A6" s="30">
         <v>43445</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="29">
         <v>7500</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="31">
         <v>38</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="31">
         <v>635.08</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="31">
         <v>1552.42</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="23">
+      <c r="H6" s="31"/>
+      <c r="I6" s="26">
         <f t="shared" si="4"/>
         <v>9725.5</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="52">
         <v>20</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="31">
         <v>689.66</v>
       </c>
-      <c r="N6" s="28">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
         <f t="shared" si="1"/>
         <v>9035.84</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="29">
         <v>287.18</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="29">
         <v>525</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="59">
         <f t="shared" si="2"/>
         <v>8223.66</v>
       </c>
-      <c r="S6" s="57">
+      <c r="S6" s="60">
         <f>(R6-5000)*0.1-210</f>
         <v>112.366</v>
       </c>
-      <c r="T6" s="58">
+      <c r="T6" s="61">
         <f t="shared" si="3"/>
         <v>8111.294</v>
       </c>
-      <c r="U6" s="61">
+      <c r="U6" s="64">
         <v>3000</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="63">
         <f t="shared" si="0"/>
         <v>11111.294</v>
       </c>
-      <c r="W6" s="23" t="s">
+      <c r="W6" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:23">
-      <c r="A7" s="27">
+      <c r="A7" s="30">
         <v>43476</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="31">
         <v>7500</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="31">
         <v>38</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="31">
         <v>1968.75</v>
       </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="23">
+      <c r="G7" s="31">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="26">
         <f t="shared" si="4"/>
         <v>9506.75</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="52">
         <v>22</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
-        <v>0</v>
-      </c>
-      <c r="N7" s="28">
+      <c r="L7" s="31">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
         <v>1534.48</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="27">
         <f t="shared" si="1"/>
         <v>7972.27</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="29">
         <v>282.78</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="29">
         <v>525</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="59">
         <f t="shared" si="2"/>
         <v>7164.49</v>
       </c>
-      <c r="S7" s="57">
+      <c r="S7" s="60">
         <f t="shared" si="5"/>
         <v>64.9347</v>
       </c>
-      <c r="T7" s="58">
+      <c r="T7" s="61">
         <f t="shared" si="3"/>
         <v>7099.5553</v>
       </c>
-      <c r="U7" s="61">
+      <c r="U7" s="64">
         <v>3000</v>
       </c>
-      <c r="V7" s="60">
+      <c r="V7" s="63">
         <f t="shared" si="0"/>
         <v>10099.5553</v>
       </c>
-      <c r="W7" s="23" t="s">
+      <c r="W7" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:23">
-      <c r="A8" s="27">
+      <c r="A8" s="30">
         <v>43516</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="31">
         <v>7500</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="31">
         <v>38</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="31">
         <v>2188</v>
       </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="23">
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="26">
         <f t="shared" si="4"/>
         <v>9726</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="52">
         <v>21</v>
       </c>
-      <c r="L8" s="49">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <v>0</v>
-      </c>
-      <c r="N8" s="29">
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
         <v>1636.28</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="27">
         <f t="shared" si="1"/>
         <v>8089.72</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="26">
         <v>282.78</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="26">
         <v>525</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8" s="27">
         <f t="shared" si="2"/>
         <v>7281.94</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="55">
         <f t="shared" si="5"/>
         <v>68.4582</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="58">
         <f t="shared" si="3"/>
         <v>7213.4818</v>
       </c>
-      <c r="U8" s="61">
+      <c r="U8" s="64">
         <v>3000</v>
       </c>
-      <c r="V8" s="54">
+      <c r="V8" s="57">
         <f t="shared" si="0"/>
         <v>10213.4818</v>
       </c>
-      <c r="W8" s="23" t="s">
+      <c r="W8" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:23">
-      <c r="A9" s="27">
+      <c r="A9" s="30">
         <v>43536</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="31">
         <v>10150</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="31">
         <v>38</v>
       </c>
-      <c r="F9" s="28">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
         <v>1636.28</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="33">
         <v>-2217.1</v>
       </c>
-      <c r="I9" s="23">
-        <f>SUM(D9:H9)</f>
+      <c r="I9" s="26">
+        <f t="shared" si="4"/>
         <v>9607.18</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="52">
         <v>17</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="31">
         <v>2</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="31">
         <v>933.33</v>
       </c>
-      <c r="N9" s="28">
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
-        <f>I9-N9-M9</f>
+      <c r="N9" s="31">
+        <v>0</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="1"/>
         <v>8673.85</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="26">
         <v>282.78</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="26">
         <v>525</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="27">
         <f t="shared" si="2"/>
         <v>7866.07</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="55">
         <f t="shared" si="5"/>
         <v>85.9821</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="58">
         <f t="shared" si="3"/>
         <v>7780.0879</v>
       </c>
-      <c r="U9" s="49">
-        <v>0</v>
-      </c>
-      <c r="V9" s="54">
+      <c r="U9" s="52">
+        <v>0</v>
+      </c>
+      <c r="V9" s="57">
         <f t="shared" si="0"/>
         <v>7780.0879</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="W9" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:23">
-      <c r="A10" s="15"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="18"/>
+      <c r="C10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="31">
         <v>10150</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="31">
         <v>38</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="31">
         <v>7613</v>
       </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
-        <f>SUM(D10:H10)</f>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="4"/>
         <v>17801</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="52">
         <v>17</v>
       </c>
-      <c r="L10" s="28">
-        <v>0</v>
-      </c>
-      <c r="M10" s="28">
-        <v>0</v>
-      </c>
-      <c r="N10" s="28">
-        <v>0</v>
-      </c>
-      <c r="O10" s="24">
-        <f>I10-N10-M10</f>
+      <c r="L10" s="31">
+        <v>0</v>
+      </c>
+      <c r="M10" s="31">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31">
+        <v>0</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="1"/>
         <v>17801</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="26">
         <v>282.78</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="26">
         <v>525</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="27">
         <f t="shared" si="2"/>
         <v>16993.22</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="55">
         <f>(R10-5000)*0.2-1410</f>
         <v>988.644</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="58">
         <f t="shared" si="3"/>
         <v>16004.576</v>
       </c>
-      <c r="U10" s="49">
-        <v>0</v>
-      </c>
-      <c r="V10" s="54">
+      <c r="U10" s="52">
+        <v>0</v>
+      </c>
+      <c r="V10" s="57">
         <f t="shared" si="0"/>
         <v>16004.576</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="W10" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2386,7 +2444,7 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -2396,7 +2454,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:4">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2406,30 +2464,30 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15">
+      <c r="A18" s="18">
         <v>4770.07</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="18">
         <v>5028.72</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="18">
         <v>1952.12</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="18">
         <v>754.45</v>
       </c>
     </row>
@@ -2495,574 +2553,574 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11">
+      <c r="A2" s="14">
         <v>42370</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" ht="39" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="14">
         <v>42401</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="15">
         <v>2585</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>517</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>206.8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" ht="39" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="14">
         <v>42430</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="15">
         <v>2585</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="15">
         <v>517</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="15">
         <v>206.8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" ht="39" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>42461</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="15">
         <v>2585</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>517</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>206.8</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" ht="39" spans="1:6">
-      <c r="A6" s="11">
+      <c r="A6" s="14">
         <v>42491</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="15">
         <v>2585</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>491.15</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>206.8</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:6">
-      <c r="A7" s="11">
+      <c r="A7" s="14">
         <v>42522</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="15">
         <v>2585</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>491.15</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>206.8</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" ht="39" spans="1:6">
-      <c r="A8" s="11">
+      <c r="A8" s="14">
         <v>42552</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="15">
         <v>2844</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <v>540.36</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>227.52</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" ht="39" spans="1:6">
-      <c r="A9" s="11">
+      <c r="A9" s="14">
         <v>42583</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15">
         <v>2844</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>540.36</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>227.52</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" ht="39" spans="1:6">
-      <c r="A10" s="11">
+      <c r="A10" s="14">
         <v>42614</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="15">
         <v>2834</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="15">
         <v>538.46</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>226.72</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11">
+      <c r="A11" s="14">
         <v>42644</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11">
+      <c r="A12" s="14">
         <v>42675</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" ht="26" spans="1:6">
-      <c r="A13" s="11">
+      <c r="A13" s="14">
         <v>42705</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="15">
         <v>2834</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="15">
         <v>538.46</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="15">
         <v>226.72</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:6">
-      <c r="A14" s="11">
+      <c r="A14" s="14">
         <v>42736</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="15">
         <v>2834</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <v>538.46</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>226.72</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:6">
-      <c r="A15" s="11">
+      <c r="A15" s="14">
         <v>42767</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="15">
         <v>2834</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
         <v>538.46</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>226.72</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:6">
-      <c r="A16" s="11">
+      <c r="A16" s="14">
         <v>42795</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="15">
         <v>2834</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="15">
         <v>538.46</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>226.72</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:6">
-      <c r="A17" s="11">
+      <c r="A17" s="14">
         <v>42826</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="15">
         <v>2834</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <v>538.46</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="15">
         <v>226.72</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:6">
-      <c r="A18" s="11">
+      <c r="A18" s="14">
         <v>42856</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="15">
         <v>2834</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="15">
         <v>538.46</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="15">
         <v>226.72</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:6">
-      <c r="A19" s="11">
+      <c r="A19" s="14">
         <v>42887</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="15">
         <v>2834</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="15">
         <v>538.46</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="15">
         <v>226.72</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:6">
-      <c r="A20" s="11">
+      <c r="A20" s="14">
         <v>42917</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="15">
         <v>3082</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="15">
         <v>585.58</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>246.56</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11">
+      <c r="A21" s="14">
         <v>42948</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="B21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
+      <c r="A22" s="14">
         <v>42979</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="B22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" ht="39" spans="1:6">
-      <c r="A23" s="11">
+      <c r="A23" s="14">
         <v>43009</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="15">
         <v>3082</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="15">
         <v>585.58</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="15">
         <v>246.56</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" ht="39" spans="1:6">
-      <c r="A24" s="11">
+      <c r="A24" s="14">
         <v>43040</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="15">
         <v>3082</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="15">
         <v>585.58</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="15">
         <v>246.56</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" ht="39" spans="1:6">
-      <c r="A25" s="11">
+      <c r="A25" s="14">
         <v>43070</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="15">
         <v>3082</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="15">
         <v>585.58</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="15">
         <v>246.56</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" ht="39" spans="1:6">
-      <c r="A26" s="11">
+      <c r="A26" s="14">
         <v>43101</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="15">
         <v>3082</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="15">
         <v>585.58</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="15">
         <v>246.56</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" ht="39" spans="1:6">
-      <c r="A27" s="11">
+      <c r="A27" s="14">
         <v>43132</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="15">
         <v>3082</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="15">
         <v>585.58</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="15">
         <v>246.56</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="39" spans="1:6">
-      <c r="A28" s="11">
+      <c r="A28" s="14">
         <v>43160</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="15">
         <v>3082</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="15">
         <v>585.58</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="15">
         <v>246.56</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3070,6 +3128,266 @@
       <c r="E29">
         <f>SUM(E2:E28)</f>
         <v>5028.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8">
+        <v>43525</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F31" s="9">
+        <v>176</v>
+      </c>
+      <c r="G31" s="9">
+        <v>286</v>
+      </c>
+      <c r="H31" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="8">
+        <v>43497</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="9">
+        <v>176</v>
+      </c>
+      <c r="G32" s="9">
+        <v>286</v>
+      </c>
+      <c r="H32" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43466</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="9">
+        <v>176</v>
+      </c>
+      <c r="G33" s="9">
+        <v>286</v>
+      </c>
+      <c r="H33" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="8">
+        <v>43435</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F34" s="9">
+        <v>176</v>
+      </c>
+      <c r="G34" s="9">
+        <v>286</v>
+      </c>
+      <c r="H34" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="8">
+        <v>43405</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="9">
+        <v>176</v>
+      </c>
+      <c r="G35" s="9">
+        <v>286</v>
+      </c>
+      <c r="H35" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="8">
+        <v>43374</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F36" s="9">
+        <v>176</v>
+      </c>
+      <c r="G36" s="9">
+        <v>286</v>
+      </c>
+      <c r="H36" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43344</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F37" s="9">
+        <v>176</v>
+      </c>
+      <c r="G37" s="9">
+        <v>286</v>
+      </c>
+      <c r="H37" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="8">
+        <v>43313</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F38" s="9">
+        <v>176</v>
+      </c>
+      <c r="G38" s="9">
+        <v>286</v>
+      </c>
+      <c r="H38" s="9">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="8">
+        <v>43221</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2130</v>
+      </c>
+      <c r="F39" s="9">
+        <v>170.4</v>
+      </c>
+      <c r="G39" s="9">
+        <v>276.9</v>
+      </c>
+      <c r="H39" s="9">
+        <v>447.3</v>
       </c>
     </row>
   </sheetData>
@@ -3081,10 +3399,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -3094,564 +3412,564 @@
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>75</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:10">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>42370</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>76</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" ht="26" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="14">
         <v>42401</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="15">
         <v>3878</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="15">
         <v>387.8</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>80.56</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" ht="26" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="14">
         <v>42430</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="15">
         <v>3878</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="15">
         <v>387.8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="15">
         <v>80.56</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" ht="26" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="14">
         <v>42461</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="15">
         <v>3878</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>387.8</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>80.56</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" ht="26" spans="1:6">
-      <c r="A6" s="11">
+      <c r="A6" s="14">
         <v>42491</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="15">
         <v>3878</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>387.8</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>80.56</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" ht="26" spans="1:6">
-      <c r="A7" s="11">
+      <c r="A7" s="14">
         <v>42522</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="15">
         <v>3878</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>387.8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>80.56</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" ht="26" spans="1:6">
-      <c r="A8" s="11">
+      <c r="A8" s="14">
         <v>42552</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="15">
         <v>4266</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <v>426.6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>88.32</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" ht="26" spans="1:6">
-      <c r="A9" s="11">
+      <c r="A9" s="14">
         <v>42583</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="15">
         <v>4266</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>426.6</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>88.32</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" ht="26" spans="1:6">
-      <c r="A10" s="11">
+      <c r="A10" s="14">
         <v>42614</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="15">
         <v>4252</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="15">
         <v>425.2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>88.04</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11">
+      <c r="A11" s="14">
         <v>42644</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11">
+      <c r="A12" s="14">
         <v>42675</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" ht="26" spans="1:6">
-      <c r="A13" s="11">
+      <c r="A13" s="14">
         <v>42705</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="15">
         <v>4252</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="15">
         <v>425.2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="15">
         <v>88.04</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" ht="26" spans="1:6">
-      <c r="A14" s="11">
+      <c r="A14" s="14">
         <v>42736</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="15">
         <v>4252</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <v>425.2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>88.04</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" ht="26" spans="1:6">
-      <c r="A15" s="11">
+      <c r="A15" s="14">
         <v>42767</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="15">
         <v>4252</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
         <v>425.2</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>88.04</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" ht="26" spans="1:6">
-      <c r="A16" s="11">
+      <c r="A16" s="14">
         <v>42795</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="15">
         <v>4252</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="15">
         <v>425.2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>88.04</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" ht="26" spans="1:6">
-      <c r="A17" s="11">
+      <c r="A17" s="14">
         <v>42826</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="15">
         <v>4252</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <v>425.2</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="15">
         <v>88.04</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" ht="26" spans="1:6">
-      <c r="A18" s="11">
+      <c r="A18" s="14">
         <v>42856</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="15">
         <v>4252</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="15">
         <v>425.2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="15">
         <v>88.04</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" ht="26" spans="1:6">
-      <c r="A19" s="11">
+      <c r="A19" s="14">
         <v>42887</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="15">
         <v>4252</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="15">
         <v>425.2</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="15">
         <v>88.04</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" ht="26" spans="1:6">
-      <c r="A20" s="11">
+      <c r="A20" s="14">
         <v>42917</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="15">
         <v>4624</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="15">
         <v>462.4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>95.48</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11">
+      <c r="A21" s="14">
         <v>42948</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="B21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
+      <c r="A22" s="14">
         <v>42979</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="B22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" ht="26" spans="1:6">
-      <c r="A23" s="11">
+      <c r="A23" s="14">
         <v>43009</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="15">
         <v>4624</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="15">
         <v>462.4</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="15">
         <v>95.48</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" ht="26" spans="1:6">
-      <c r="A24" s="11">
+      <c r="A24" s="14">
         <v>43040</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="15">
         <v>4624</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="15">
         <v>462.4</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="15">
         <v>95.48</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" ht="26" spans="1:6">
-      <c r="A25" s="11">
+      <c r="A25" s="14">
         <v>43070</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15">
         <v>4624</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="15">
         <v>462.4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="15">
         <v>95.48</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" ht="26" spans="1:6">
-      <c r="A26" s="11">
+      <c r="A26" s="14">
         <v>43101</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="15">
         <v>4624</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="15">
         <v>462.4</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="15">
         <v>95.48</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" ht="26" spans="1:6">
-      <c r="A27" s="11">
+      <c r="A27" s="14">
         <v>43132</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="B27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="15">
         <v>4624</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="15">
         <v>462.4</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="15">
         <v>95.48</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" ht="26" spans="1:6">
-      <c r="A28" s="11">
+      <c r="A28" s="14">
         <v>43160</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="15">
         <v>4624</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="15">
         <v>462.4</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="15">
         <v>95.48</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3659,6 +3977,356 @@
       <c r="E29">
         <f>SUM(E2:E28)</f>
         <v>1952.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="8">
+        <v>43525</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H31" s="9">
+        <v>260.47</v>
+      </c>
+      <c r="I31" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J31" s="9">
+        <v>360.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="8">
+        <v>43497</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G32" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H32" s="9">
+        <v>260.47</v>
+      </c>
+      <c r="I32" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J32" s="9">
+        <v>360.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="8">
+        <v>43466</v>
+      </c>
+      <c r="F33" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G33" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H33" s="9">
+        <v>260.47</v>
+      </c>
+      <c r="I33" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J33" s="9">
+        <v>360.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="8">
+        <v>43435</v>
+      </c>
+      <c r="F34" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G34" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H34" s="9">
+        <v>260.47</v>
+      </c>
+      <c r="I34" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J34" s="9">
+        <v>360.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="8">
+        <v>43405</v>
+      </c>
+      <c r="F35" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G35" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H35" s="9">
+        <v>310.56</v>
+      </c>
+      <c r="I35" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J35" s="9">
+        <v>410.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="8">
+        <v>43374</v>
+      </c>
+      <c r="F36" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G36" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H36" s="9">
+        <v>310.56</v>
+      </c>
+      <c r="I36" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J36" s="9">
+        <v>410.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="8">
+        <v>43344</v>
+      </c>
+      <c r="F37" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G37" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H37" s="9">
+        <v>310.56</v>
+      </c>
+      <c r="I37" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J37" s="9">
+        <v>410.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="8">
+        <v>43313</v>
+      </c>
+      <c r="F38" s="9">
+        <v>5009</v>
+      </c>
+      <c r="G38" s="9">
+        <v>100.18</v>
+      </c>
+      <c r="H38" s="9">
+        <v>310.56</v>
+      </c>
+      <c r="I38" s="9">
+        <v>250.45</v>
+      </c>
+      <c r="J38" s="9">
+        <v>410.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="8">
+        <v>43221</v>
+      </c>
+      <c r="F39" s="9">
+        <v>7480</v>
+      </c>
+      <c r="G39" s="9">
+        <v>7.48</v>
+      </c>
+      <c r="H39" s="9">
+        <v>33.66</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>808.92</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2317.78</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2003.6</v>
+      </c>
+      <c r="J40" s="9">
+        <v>3126.7</v>
       </c>
     </row>
   </sheetData>
@@ -3672,7 +4340,7 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4088,20 +4756,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>72</v>
@@ -4411,6 +5079,290 @@
       <c r="C29">
         <f>SUM(C2:C28)</f>
         <v>754.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="8">
+        <v>43525</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H32" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="8">
+        <v>43497</v>
+      </c>
+      <c r="E33" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H33" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="8">
+        <v>43466</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H34" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="8">
+        <v>43435</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H35" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="8">
+        <v>43405</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H36" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="8">
+        <v>43374</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H37" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="8">
+        <v>43344</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H38" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="8">
+        <v>43313</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="H39" s="9">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="8">
+        <v>43221</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2130</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>9.59</v>
+      </c>
+      <c r="H40" s="9">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>88.79</v>
+      </c>
+      <c r="H41" s="9">
+        <v>88.79</v>
       </c>
     </row>
   </sheetData>
@@ -4769,7 +5721,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -4780,7 +5732,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4788,7 +5740,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>2</v>
